--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna3-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna3-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2192063333333333</v>
+        <v>0.370913</v>
       </c>
       <c r="H2">
-        <v>0.657619</v>
+        <v>1.112739</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.916802666666666</v>
+        <v>4.002008666666667</v>
       </c>
       <c r="N2">
-        <v>5.750407999999999</v>
+        <v>12.006026</v>
       </c>
       <c r="O2">
-        <v>0.3865473586068074</v>
+        <v>0.4834231243738785</v>
       </c>
       <c r="P2">
-        <v>0.3865473586068073</v>
+        <v>0.4834231243738787</v>
       </c>
       <c r="Q2">
-        <v>0.4201752842835554</v>
+        <v>1.484397040579333</v>
       </c>
       <c r="R2">
-        <v>3.781577558551999</v>
+        <v>13.359573365214</v>
       </c>
       <c r="S2">
-        <v>0.3865473586068074</v>
+        <v>0.4834231243738785</v>
       </c>
       <c r="T2">
-        <v>0.3865473586068073</v>
+        <v>0.4834231243738787</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2192063333333333</v>
+        <v>0.370913</v>
       </c>
       <c r="H3">
-        <v>0.657619</v>
+        <v>1.112739</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,28 +614,90 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.041975666666667</v>
+        <v>4.265473333333333</v>
       </c>
       <c r="N3">
-        <v>9.125927000000001</v>
+        <v>12.79642</v>
       </c>
       <c r="O3">
-        <v>0.6134526413931928</v>
+        <v>0.5152483708764571</v>
       </c>
       <c r="P3">
-        <v>0.6134526413931927</v>
+        <v>0.5152483708764573</v>
       </c>
       <c r="Q3">
-        <v>0.6668203319792222</v>
+        <v>1.582119510486667</v>
       </c>
       <c r="R3">
-        <v>6.001382987813</v>
+        <v>14.23907559438</v>
       </c>
       <c r="S3">
-        <v>0.6134526413931928</v>
+        <v>0.5152483708764571</v>
       </c>
       <c r="T3">
-        <v>0.6134526413931927</v>
+        <v>0.5152483708764573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.370913</v>
+      </c>
+      <c r="H4">
+        <v>1.112739</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.010998</v>
+      </c>
+      <c r="N4">
+        <v>0.032994</v>
+      </c>
+      <c r="O4">
+        <v>0.001328504749664189</v>
+      </c>
+      <c r="P4">
+        <v>0.00132850474966419</v>
+      </c>
+      <c r="Q4">
+        <v>0.004079301174000001</v>
+      </c>
+      <c r="R4">
+        <v>0.036713710566</v>
+      </c>
+      <c r="S4">
+        <v>0.001328504749664189</v>
+      </c>
+      <c r="T4">
+        <v>0.00132850474966419</v>
       </c>
     </row>
   </sheetData>
